--- a/data/Общая экология 2024-2025 grades - 09_16_2024, 08_12 PM.xlsx
+++ b/data/Общая экология 2024-2025 grades - 09_16_2024, 08_12 PM.xlsx
@@ -2196,7 +2196,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Assignments Export" pivot="0" count="1" xr9:uid="{9C653468-45B2-4721-B1E1-C30588224FD7}">
+    <tableStyle name="Assignments Export" pivot="0" count="1" xr9:uid="{39CE9CCD-D644-4A0C-A528-F8C0C314DC80}">
       <tableStyleElement type="headerRow" dxfId="12"/>
     </tableStyle>
   </tableStyles>
@@ -2582,8 +2582,8 @@
   <sheetPr/>
   <dimension ref="D1:Q123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F29" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3988,8 +3988,8 @@
       <c r="L32" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M32" s="6">
-        <v>18</v>
+      <c r="M32" s="8">
+        <v>19</v>
       </c>
       <c r="N32" s="6">
         <v>20</v>

--- a/data/Общая экология 2024-2025 grades - 09_16_2024, 08_12 PM.xlsx
+++ b/data/Общая экология 2024-2025 grades - 09_16_2024, 08_12 PM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9120"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment Data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="452">
   <si>
     <t>Full Name</t>
   </si>
@@ -1379,6 +1379,18 @@
   </si>
   <si>
     <t>st114825@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Астапова</t>
+  </si>
+  <si>
+    <t>st138471@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Зиннатуллина</t>
+  </si>
+  <si>
+    <t>st138472@student.spbu.ru</t>
   </si>
 </sst>
 </file>
@@ -2025,7 +2037,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2037,6 +2049,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2196,7 +2211,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Assignments Export" pivot="0" count="1" xr9:uid="{39CE9CCD-D644-4A0C-A528-F8C0C314DC80}">
+    <tableStyle name="Assignments Export" pivot="0" count="1" xr9:uid="{5F8B53F4-45FF-428F-97A3-9ED2CFBFD235}">
       <tableStyleElement type="headerRow" dxfId="12"/>
     </tableStyle>
   </tableStyles>
@@ -2302,8 +2317,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="table" displayName="table" ref="D1:O123" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="D1:O123" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="table" displayName="table" ref="D1:O125" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="D1:O125" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Full Name" dataDxfId="0"/>
     <tableColumn id="2" name="First Name" dataDxfId="1"/>
@@ -2580,10 +2595,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D1:Q123"/>
+  <dimension ref="D1:Q125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="B106" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -8006,6 +8021,42 @@
       </c>
       <c r="Q123" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="4:13">
+      <c r="D124" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="4:13">
+      <c r="D125" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="9">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/Общая экология 2024-2025 grades - 09_16_2024, 08_12 PM.xlsx
+++ b/data/Общая экология 2024-2025 grades - 09_16_2024, 08_12 PM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="22188" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment Data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="456">
   <si>
     <t>Full Name</t>
   </si>
@@ -1391,6 +1391,18 @@
   </si>
   <si>
     <t>st138472@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Сергеева</t>
+  </si>
+  <si>
+    <t>st136654@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Костригин</t>
+  </si>
+  <si>
+    <t>st136599@student.spbu.ru</t>
   </si>
 </sst>
 </file>
@@ -2211,7 +2223,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Assignments Export" pivot="0" count="1" xr9:uid="{5F8B53F4-45FF-428F-97A3-9ED2CFBFD235}">
+    <tableStyle name="Assignments Export" pivot="0" count="1" xr9:uid="{E45DAE25-E0CD-43CF-A404-29CE9607B51A}">
       <tableStyleElement type="headerRow" dxfId="12"/>
     </tableStyle>
   </tableStyles>
@@ -2317,8 +2329,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="table" displayName="table" ref="D1:O125" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="D1:O125" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="table" displayName="table" ref="D1:O127" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="D1:O127" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Full Name" dataDxfId="0"/>
     <tableColumn id="2" name="First Name" dataDxfId="1"/>
@@ -2595,10 +2607,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D1:Q125"/>
+  <dimension ref="D1:Q127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B106" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+    <sheetView tabSelected="1" topLeftCell="F106" workbookViewId="0">
+      <selection activeCell="M127" sqref="M127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -8057,6 +8069,28 @@
       <c r="L125" s="9"/>
       <c r="M125" s="9">
         <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="4:13">
+      <c r="D126" t="s">
+        <v>452</v>
+      </c>
+      <c r="G126" t="s">
+        <v>453</v>
+      </c>
+      <c r="M126">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="4:13">
+      <c r="D127" t="s">
+        <v>454</v>
+      </c>
+      <c r="G127" t="s">
+        <v>455</v>
+      </c>
+      <c r="M127">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
